--- a/data/figures/guo4.xlsx
+++ b/data/figures/guo4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCY\SkyDrive\文件\楊晉昌PAPER\SVDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCY\SkyDrive\文件\楊晉昌PAPER\SPSDE\TEVC (13 pages)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,7 +230,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1"/>
@@ -2489,11 +2489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="604678960"/>
-        <c:axId val="604678400"/>
+        <c:axId val="355438416"/>
+        <c:axId val="358225600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="604678960"/>
+        <c:axId val="355438416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2581,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604678400"/>
+        <c:crossAx val="358225600"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2589,7 +2589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604678400"/>
+        <c:axId val="358225600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2740,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604678960"/>
+        <c:crossAx val="355438416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2856,7 +2856,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -5115,11 +5115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="359368656"/>
-        <c:axId val="359363616"/>
+        <c:axId val="415271984"/>
+        <c:axId val="415272544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359368656"/>
+        <c:axId val="415271984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5207,7 +5207,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359363616"/>
+        <c:crossAx val="415272544"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5215,7 +5215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359363616"/>
+        <c:axId val="415272544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,7 +5328,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359368656"/>
+        <c:crossAx val="415271984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5444,7 +5444,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -7703,11 +7703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452379920"/>
-        <c:axId val="452379360"/>
+        <c:axId val="415281504"/>
+        <c:axId val="415282064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452379920"/>
+        <c:axId val="415281504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7795,7 +7795,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452379360"/>
+        <c:crossAx val="415282064"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7803,7 +7803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452379360"/>
+        <c:axId val="415282064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,7 +7916,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452379920"/>
+        <c:crossAx val="415281504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8032,7 +8032,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -10291,11 +10291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437537696"/>
-        <c:axId val="437541616"/>
+        <c:axId val="416042240"/>
+        <c:axId val="416042800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="437537696"/>
+        <c:axId val="416042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10383,7 +10383,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437541616"/>
+        <c:crossAx val="416042800"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10391,7 +10391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437541616"/>
+        <c:axId val="416042800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10504,7 +10504,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437537696"/>
+        <c:crossAx val="416042240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17761,7 +17761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
